--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子佩剑决赛" sheetId="1" r:id="rId1"/>
     <sheet name="女佩决赛" sheetId="3" r:id="rId2"/>
     <sheet name="女佩半决赛" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="techniques" sheetId="2" r:id="rId5"/>
+    <sheet name="男佩半决赛" sheetId="5" r:id="rId4"/>
+    <sheet name="男佩半决赛2" sheetId="6" r:id="rId5"/>
+    <sheet name="techniques" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="91">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,9 +263,6 @@
     <t>Kamil IBRAGIMOV</t>
   </si>
   <si>
-    <t>DQ</t>
-  </si>
-  <si>
     <t>abbreviate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,13 +324,61 @@
   </si>
   <si>
     <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vincent Anstett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andras Szatmari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一剑不是很懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,25 +701,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -685,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -694,12 +740,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.13680555555555554</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -711,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.13819444444444443</v>
       </c>
@@ -728,18 +774,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.14444444444444446</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.1451388888888889</v>
       </c>
@@ -759,18 +805,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.15763888888888888</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.15833333333333333</v>
       </c>
@@ -787,18 +833,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.16458333333333333</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16527777777777777</v>
       </c>
@@ -815,18 +861,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.17152777777777775</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.17222222222222225</v>
       </c>
@@ -846,18 +892,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.18194444444444444</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.18263888888888891</v>
       </c>
@@ -874,18 +920,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.18819444444444444</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.18888888888888888</v>
       </c>
@@ -905,18 +951,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.20069444444444443</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.20138888888888887</v>
       </c>
@@ -936,18 +982,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.21458333333333335</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.21805555555555556</v>
       </c>
@@ -955,7 +1001,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -967,18 +1013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.23472222222222219</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0.23541666666666669</v>
       </c>
@@ -995,18 +1041,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>0.24166666666666667</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.24236111111111111</v>
       </c>
@@ -1023,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.24583333333333335</v>
       </c>
@@ -1031,7 +1077,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -1043,18 +1089,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.26041666666666669</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.26111111111111113</v>
       </c>
@@ -1074,18 +1120,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.27291666666666664</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.27361111111111108</v>
       </c>
@@ -1105,18 +1151,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.28194444444444444</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>0.28541666666666665</v>
       </c>
@@ -1124,7 +1170,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -1136,18 +1182,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>0.3</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>0.30069444444444443</v>
       </c>
@@ -1158,7 +1204,7 @@
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1167,18 +1213,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>0.31111111111111112</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>0.31180555555555556</v>
       </c>
@@ -1195,18 +1241,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>0.32500000000000001</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>0.3263888888888889</v>
       </c>
@@ -1226,18 +1272,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>0.3430555555555555</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>0.3444444444444445</v>
       </c>
@@ -1254,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>0.34583333333333338</v>
       </c>
@@ -1274,18 +1320,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>0.40833333333333338</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>0.40902777777777777</v>
       </c>
@@ -1302,35 +1348,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>0.4145833333333333</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>0.4152777777777778</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>0.41597222222222219</v>
       </c>
@@ -1350,18 +1396,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>0.43472222222222223</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>0.43541666666666662</v>
       </c>
@@ -1381,18 +1427,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>0.45902777777777781</v>
       </c>
@@ -1412,18 +1458,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>0.47361111111111115</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>0.47430555555555554</v>
       </c>
@@ -1440,18 +1486,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>0.48541666666666666</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>0.4861111111111111</v>
       </c>
@@ -1471,18 +1517,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>0.49791666666666662</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>0.49861111111111112</v>
       </c>
@@ -1502,35 +1548,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>0.52569444444444446</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>0.52638888888888891</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>0.52777777777777779</v>
       </c>
@@ -1538,7 +1584,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
@@ -1550,18 +1596,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>0.53749999999999998</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>0.53819444444444442</v>
       </c>
@@ -1581,18 +1627,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>0.55277777777777781</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>0.55347222222222225</v>
       </c>
@@ -1609,18 +1655,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>0.56180555555555556</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>0.5625</v>
       </c>
@@ -1640,18 +1686,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>0.57986111111111105</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>0.5805555555555556</v>
       </c>
@@ -1671,18 +1717,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>0.64513888888888882</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1699,23 +1745,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>0.65347222222222223</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>0.65416666666666667</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>56</v>
@@ -1727,18 +1773,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>0.6875</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>0.68819444444444444</v>
       </c>
@@ -1749,7 +1795,7 @@
         <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1758,18 +1804,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>0.70000000000000007</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>0.7006944444444444</v>
       </c>
@@ -1780,7 +1826,7 @@
         <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -1789,18 +1835,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>0.73888888888888893</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>0.7402777777777777</v>
       </c>
@@ -1820,23 +1866,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>0.75763888888888886</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>0.7583333333333333</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -1848,18 +1894,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>0.77569444444444446</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>0.77638888888888891</v>
       </c>
@@ -1879,18 +1925,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>0.79236111111111107</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>0.79305555555555562</v>
       </c>
@@ -1918,14 +1964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4.6527777777777779E-2</v>
       </c>
@@ -1969,7 +2015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4.7222222222222221E-2</v>
       </c>
@@ -1989,7 +2035,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6.5972222222222224E-2</v>
       </c>
@@ -2005,7 +2051,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2021,7 +2067,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>7.2222222222222229E-2</v>
       </c>
@@ -2037,7 +2083,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -2053,7 +2099,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7.7777777777777779E-2</v>
       </c>
@@ -2069,7 +2115,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -2087,7 +2133,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8.9583333333333334E-2</v>
       </c>
@@ -2103,7 +2149,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9.5833333333333326E-2</v>
       </c>
@@ -2121,7 +2167,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.10833333333333334</v>
       </c>
@@ -2137,7 +2183,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.10902777777777778</v>
       </c>
@@ -2153,7 +2199,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.11944444444444445</v>
       </c>
@@ -2169,7 +2215,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.12013888888888889</v>
       </c>
@@ -2185,7 +2231,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.12569444444444444</v>
       </c>
@@ -2201,7 +2247,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.12708333333333333</v>
       </c>
@@ -2214,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.13680555555555554</v>
       </c>
@@ -2225,7 +2271,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.13819444444444443</v>
       </c>
@@ -2238,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.14722222222222223</v>
       </c>
@@ -2249,7 +2295,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.14791666666666667</v>
       </c>
@@ -2262,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.17013888888888887</v>
       </c>
@@ -2273,7 +2319,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.17500000000000002</v>
       </c>
@@ -2286,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.18611111111111112</v>
       </c>
@@ -2297,7 +2343,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.1875</v>
       </c>
@@ -2310,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.20138888888888887</v>
       </c>
@@ -2321,7 +2367,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>0.20277777777777781</v>
       </c>
@@ -2334,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0.21388888888888891</v>
       </c>
@@ -2345,7 +2391,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0.21666666666666667</v>
       </c>
@@ -2358,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.22569444444444445</v>
       </c>
@@ -2369,7 +2415,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0.22777777777777777</v>
       </c>
@@ -2382,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0.27777777777777779</v>
       </c>
@@ -2393,7 +2439,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0.27986111111111112</v>
       </c>
@@ -2406,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>0.29444444444444445</v>
       </c>
@@ -2417,7 +2463,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0.30138888888888887</v>
       </c>
@@ -2430,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0.31944444444444448</v>
       </c>
@@ -2441,7 +2487,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0.32013888888888892</v>
       </c>
@@ -2452,7 +2498,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0.33124999999999999</v>
       </c>
@@ -2463,7 +2509,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0.33611111111111108</v>
       </c>
@@ -2476,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0.3576388888888889</v>
       </c>
@@ -2487,7 +2533,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0.35972222222222222</v>
       </c>
@@ -2500,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0.375</v>
       </c>
@@ -2511,7 +2557,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>0.37638888888888888</v>
       </c>
@@ -2524,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0.39097222222222222</v>
       </c>
@@ -2535,7 +2581,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0.39166666666666666</v>
       </c>
@@ -2546,7 +2592,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>0.39999999999999997</v>
       </c>
@@ -2557,7 +2603,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0.4055555555555555</v>
       </c>
@@ -2570,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>0.42569444444444443</v>
       </c>
@@ -2581,7 +2627,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0.43055555555555558</v>
       </c>
@@ -2594,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>0.45624999999999999</v>
       </c>
@@ -2605,7 +2651,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0.45694444444444443</v>
       </c>
@@ -2616,7 +2662,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0.46249999999999997</v>
       </c>
@@ -2627,7 +2673,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.46388888888888885</v>
       </c>
@@ -2640,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>0.47291666666666665</v>
       </c>
@@ -2651,7 +2697,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.47361111111111115</v>
       </c>
@@ -2664,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>0.49652777777777773</v>
       </c>
@@ -2675,7 +2721,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>0.4993055555555555</v>
       </c>
@@ -2696,19 +2742,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.027777777777778E-2</v>
       </c>
@@ -2742,7 +2788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.0972222222222222E-2</v>
       </c>
@@ -2753,12 +2799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.1388888888888894E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.4166666666666669E-2</v>
       </c>
@@ -2769,12 +2815,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6.805555555555555E-2</v>
       </c>
@@ -2785,12 +2831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7.7777777777777779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.9166666666666663E-2</v>
       </c>
@@ -2801,12 +2847,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -2817,12 +2863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.11666666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.12361111111111112</v>
       </c>
@@ -2833,12 +2879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.13749999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13819444444444443</v>
       </c>
@@ -2849,12 +2895,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14722222222222223</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.14791666666666667</v>
       </c>
@@ -2862,12 +2908,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.15902777777777777</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.16041666666666668</v>
       </c>
@@ -2878,12 +2924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.17430555555555557</v>
       </c>
@@ -2891,12 +2937,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.17986111111111111</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.18055555555555555</v>
       </c>
@@ -2907,12 +2953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.18958333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.19097222222222221</v>
       </c>
@@ -2923,12 +2969,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.24444444444444446</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.20902777777777778</v>
       </c>
@@ -2939,12 +2985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.2298611111111111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.24027777777777778</v>
       </c>
@@ -2955,12 +3001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.25972222222222224</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -2971,12 +3017,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.28680555555555554</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.28750000000000003</v>
       </c>
@@ -2987,12 +3033,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.32777777777777778</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.3298611111111111</v>
       </c>
@@ -3003,12 +3049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.34513888888888888</v>
       </c>
@@ -3019,12 +3065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.35833333333333334</v>
       </c>
@@ -3035,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -3047,19 +3093,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -3075,955 +3123,1205 @@
       <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>9.375E-2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>9.5833333333333326E-2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0.11041666666666666</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>0.1111111111111111</v>
+        <v>0.11041666666666666</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>0.11527777777777777</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>0.11597222222222221</v>
+        <v>0.11527777777777777</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>0.12569444444444444</v>
+        <v>0.11597222222222221</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>0.12638888888888888</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>0.14375000000000002</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>0.14444444444444446</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>0.15</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>0.15069444444444444</v>
+        <v>0.15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>0.15694444444444444</v>
+        <v>0.15069444444444444</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>0.15763888888888888</v>
+        <v>0.15694444444444444</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>0.17083333333333331</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>0.17152777777777775</v>
+        <v>0.16944444444444443</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>0.18263888888888891</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>0.18333333333333335</v>
+        <v>0.17083333333333331</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>0.19444444444444445</v>
+        <v>0.18263888888888891</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>0.19513888888888889</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>0.19999999999999998</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>0.20208333333333331</v>
+        <v>0.19513888888888889</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>0.20972222222222223</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>0.21041666666666667</v>
+        <v>0.20069444444444443</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>0.21875</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>0.22013888888888888</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>0.23263888888888887</v>
+        <v>0.21041666666666667</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="4">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>0.23472222222222219</v>
+        <v>0.21875</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>0.24722222222222223</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="4">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>0.24791666666666667</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
         <v>5</v>
       </c>
-      <c r="H31" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>0.26319444444444445</v>
+        <v>0.24722222222222223</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>0.26458333333333334</v>
+        <v>0.24791666666666667</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
         <v>6</v>
       </c>
-      <c r="H35" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>0.28680555555555554</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>0.28819444444444448</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>0.30833333333333335</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>0.30902777777777779</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
       </c>
       <c r="H39" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>0.31805555555555554</v>
+        <v>0.28680555555555554</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>0.31875000000000003</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4">
-        <v>8</v>
-      </c>
-      <c r="H41" s="4">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>0.36944444444444446</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>0.37083333333333335</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4">
-        <v>9</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>0.38263888888888892</v>
+        <v>0.31805555555555554</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4">
-        <v>9</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>4</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>0.39652777777777781</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>0.3972222222222222</v>
+        <v>0.36944444444444446</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>0.40347222222222223</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="4">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>0.40486111111111112</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>0.41597222222222219</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>0.4236111111111111</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>0.42430555555555555</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4">
-        <v>10</v>
-      </c>
-      <c r="H53" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>4</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>0.44722222222222219</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4">
+        <v>4</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>0.44861111111111113</v>
+        <v>0.40416666666666662</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4</v>
+      </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="4">
+        <v>10</v>
+      </c>
+      <c r="I55" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>0.45624999999999999</v>
+        <v>0.41597222222222219</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>45</v>
@@ -4031,13 +4329,13 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>0.45694444444444443</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>50</v>
@@ -4045,13 +4343,13 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>0.47013888888888888</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>45</v>
@@ -4059,13 +4357,13 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>0.47152777777777777</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>44</v>
@@ -4073,19 +4371,19 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4">
+        <v>10</v>
+      </c>
+      <c r="I59" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>0.5</v>
+        <v>0.44722222222222219</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>45</v>
@@ -4093,33 +4391,27 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>0.50069444444444444</v>
+        <v>0.44861111111111113</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4">
-        <v>12</v>
-      </c>
-      <c r="H61" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>0.51111111111111118</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>45</v>
@@ -4127,33 +4419,27 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>0.51250000000000007</v>
+        <v>0.45694444444444443</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4">
-        <v>13</v>
-      </c>
-      <c r="H63" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>0.52083333333333337</v>
+        <v>0.47013888888888888</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>45</v>
@@ -4161,27 +4447,33 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>0.52152777777777781</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="4">
+        <v>11</v>
+      </c>
+      <c r="I65" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>0.53055555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>45</v>
@@ -4189,13 +4481,13 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>0.53194444444444444</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>44</v>
@@ -4205,17 +4497,17 @@
       <c r="E67" s="4">
         <v>1</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4">
-        <v>14</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4">
+        <v>12</v>
+      </c>
+      <c r="I67" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>0.55208333333333337</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>45</v>
@@ -4223,13 +4515,13 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>0.55277777777777781</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>44</v>
@@ -4237,19 +4529,19 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4">
-        <v>2</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I69" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>0.56527777777777777</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>45</v>
@@ -4257,13 +4549,13 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>0.56597222222222221</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>50</v>
@@ -4271,13 +4563,13 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>0.57361111111111118</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>45</v>
@@ -4285,13 +4577,13 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>0.57430555555555551</v>
+        <v>0.53194444444444444</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>44</v>
@@ -4301,11 +4593,107 @@
       <c r="E73" s="4">
         <v>1</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
+        <v>14</v>
+      </c>
+      <c r="I73" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4">
+        <v>14</v>
+      </c>
+      <c r="I75" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
         <v>15</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I79" s="4">
         <v>10</v>
       </c>
     </row>
@@ -4317,25 +4705,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD053430-066A-40E4-B142-3A3BD3928B70}">
+  <dimension ref="G1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -4343,27 +4767,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -4371,7 +4795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -4379,7 +4803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -4387,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -4395,7 +4819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -4403,7 +4827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -4411,12 +4835,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -4424,12 +4848,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -4437,12 +4861,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -4450,7 +4874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -4458,12 +4882,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4474,29 +4898,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -4504,40 +4928,40 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
